--- a/ver.2.4.3_Восстановить базы/Таблица стоимости стандартных работ.xlsx
+++ b/ver.2.4.3_Восстановить базы/Таблица стоимости стандартных работ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел продаж\Разное\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Masterlevwin\Metal-Code\ver.2.4.3_Восстановить базы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ACD53A-F2DE-4523-88B4-78BA5920975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="толщвальц">коэфициенты!$F$3:$F$15</definedName>
     <definedName name="толщсверл">коэфициенты!$B$3:$B$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Вид работы</t>
   </si>
@@ -302,13 +301,31 @@
   </si>
   <si>
     <t>ver 06.05.24</t>
+  </si>
+  <si>
+    <t>p.Part.Count</t>
+  </si>
+  <si>
+    <t>item.Holes</t>
+  </si>
+  <si>
+    <t>_work.Price</t>
+  </si>
+  <si>
+    <t>_work.Time</t>
+  </si>
+  <si>
+    <t>Time * 2000 / 60</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +339,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -420,11 +452,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -443,6 +488,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -452,7 +498,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -732,12 +783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +806,7 @@
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
@@ -1493,44 +1544,61 @@
       </c>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C30"/>
+    <row r="30" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -1571,97 +1639,145 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G32">
         <v>0.2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="M32">
-        <f>SUM(D32:L32)+C32</f>
-        <v>2.2000000000000002</v>
+        <f>SUM(C32:L32)</f>
+        <v>5.5</v>
       </c>
       <c r="N32">
         <f>M32*(U14/U12)</f>
-        <v>73.333333333333343</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="O32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="12">
         <f>O32*P32</f>
-        <v>1000</v>
-      </c>
-      <c r="R32" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="S32" s="15">
+        <v>64</v>
+      </c>
+      <c r="R32" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="S32" s="12">
         <f>(N32*Q32+B32)*R32</f>
-        <v>52383.333333333336</v>
-      </c>
-      <c r="T32" s="15">
+        <v>11910</v>
+      </c>
+      <c r="T32" s="12">
         <f>S32/P32</f>
-        <v>523.83333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>744.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
         <v>3</v>
       </c>
+      <c r="B33">
+        <f>VLOOKUP(A33,коэф,2,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,коэф,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <v>0.2</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>SUM(C33:L33)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <f>M33*(U14/U12)</f>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="12">
+        <f>O33*P33</f>
+        <v>64</v>
+      </c>
+      <c r="R33" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="S33" s="12">
+        <f>(N33*Q33+B33)*R33</f>
+        <v>11910</v>
+      </c>
+      <c r="T33" s="12">
+        <f>S33/P33</f>
+        <v>744.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q34" s="19">
+        <f>SUM(Q32:Q33)</f>
+        <v>128</v>
+      </c>
+      <c r="S34" s="19">
+        <f>SUM(S32:S33)</f>
+        <v>23820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32:A34" xr:uid="{1ECFC15A-43F6-42EE-A819-46AB94955C7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32:A33">
       <formula1>наименованиеработ</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3FF1EA-5AE4-42A1-8C5A-149118A88539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,30 +1857,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2280,30 +2396,30 @@
       <c r="A16" s="10"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="15"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -2526,30 +2642,30 @@
       <c r="V26" s="2"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="15"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -2580,30 +2696,30 @@
       <c r="V29" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -3002,30 +3118,30 @@
       <c r="V43" s="2"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="15"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -3260,30 +3376,30 @@
       <c r="V54" s="2"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="15"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -3634,30 +3750,30 @@
       <c r="V63" s="2"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="15"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -3712,30 +3828,30 @@
       <c r="V67" s="2"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="15"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -4086,30 +4202,30 @@
       <c r="V75" s="2"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -4166,30 +4282,30 @@
       <c r="V79" s="2"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="15"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
@@ -4250,30 +4366,30 @@
       <c r="V83" s="2"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="15"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
@@ -4541,17 +4657,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A28:V28"/>
+    <mergeCell ref="A31:V31"/>
+    <mergeCell ref="A45:V45"/>
     <mergeCell ref="A86:V86"/>
     <mergeCell ref="A65:V65"/>
     <mergeCell ref="A69:V69"/>
     <mergeCell ref="A77:V77"/>
     <mergeCell ref="A81:V81"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A28:V28"/>
-    <mergeCell ref="A31:V31"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A56:V56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
